--- a/Dokumentation/Organisation/Aufwandsschaetzung_1.0.xlsx
+++ b/Dokumentation/Organisation/Aufwandsschaetzung_1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2025_26\SYPRET\DriveSense\Dokumentation\Organisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drive Sense\Dokumentation\Organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826AF11-CFFE-45B4-94E0-00BFED9AE5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF1AFD7-9DCB-4EC0-A81F-031DB741B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufwandsschätzung" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +366,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -421,10 +428,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,11 +444,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -480,7 +496,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1449D87B-F32E-4C26-BAE3-4976F948F37B}" name="Tabelle2" displayName="Tabelle2" ref="A1:J48" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1449D87B-F32E-4C26-BAE3-4976F948F37B}" name="Tabelle2" displayName="Tabelle2" ref="A1:J48" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:J48" xr:uid="{1449D87B-F32E-4C26-BAE3-4976F948F37B}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E8F675F9-1C93-40E7-8E9E-8B166EAF1C74}" name="Nr."/>
@@ -493,8 +509,12 @@
       <calculatedColumnFormula>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{A739C55C-971E-4CD4-B52C-0D40350E395B}" name="Ist-Stunden"/>
-    <tableColumn id="9" xr3:uid="{0895D37D-EA7F-47C8-AD16-6143B28C06CC}" name="Abweichung (Std.)"/>
-    <tableColumn id="10" xr3:uid="{64A9A77C-10FA-460A-B67E-CD87C00870E6}" name="Abweichung (%)"/>
+    <tableColumn id="9" xr3:uid="{0895D37D-EA7F-47C8-AD16-6143B28C06CC}" name="Abweichung (Std.)" dataDxfId="1">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{64A9A77C-10FA-460A-B67E-CD87C00870E6}" name="Abweichung (%)" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle2[[#This Row],[Abweichung (Std.)]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,22 +811,22 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -838,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -865,8 +885,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-33.5</v>
+      </c>
+      <c r="J2">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-33.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -889,8 +917,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0.79</v>
+      </c>
+      <c r="I3">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-1.71</v>
+      </c>
+      <c r="J3" s="7">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -913,8 +952,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-6.25</v>
+      </c>
+      <c r="J4">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,8 +984,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>4.76</v>
+      </c>
+      <c r="I5">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-1.7400000000000002</v>
+      </c>
+      <c r="J5">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-1.7400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -961,8 +1019,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-2</v>
+      </c>
+      <c r="J6">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -985,8 +1051,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>3.56</v>
+      </c>
+      <c r="I7">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-2.94</v>
+      </c>
+      <c r="J7">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-2.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -1009,8 +1086,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>9.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-9.75</v>
+      </c>
+      <c r="J8">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-9.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1038,10 +1123,16 @@
         <v>60.75</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-60.75</v>
+      </c>
+      <c r="J9" s="3">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-60.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1064,8 +1155,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>11.5</v>
+      </c>
+      <c r="I10">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-2.75</v>
+      </c>
+      <c r="J10">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1088,8 +1190,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>9.5</v>
+      </c>
+      <c r="I11">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1112,8 +1225,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-4.25</v>
+      </c>
+      <c r="J12">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>94</v>
       </c>
@@ -1136,8 +1260,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>21.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-21.25</v>
+      </c>
+      <c r="J13">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-21.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>98</v>
       </c>
@@ -1160,8 +1292,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>8.59</v>
+      </c>
+      <c r="I14">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>4.09</v>
+      </c>
+      <c r="J14">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1189,10 +1332,16 @@
         <v>10</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="3">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-10</v>
+      </c>
+      <c r="J15" s="3">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1215,8 +1364,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>2.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-2.75</v>
+      </c>
+      <c r="J16">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1239,8 +1396,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>2.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-2.75</v>
+      </c>
+      <c r="J17">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1263,8 +1428,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-4.5</v>
+      </c>
+      <c r="J18">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1292,10 +1465,16 @@
         <v>18.25</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="3">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-18.25</v>
+      </c>
+      <c r="J19" s="3">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-18.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1318,8 +1497,19 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>1.56</v>
+      </c>
+      <c r="I20">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J20">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1342,8 +1532,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-0.75</v>
+      </c>
+      <c r="J21">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1366,8 +1564,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-6.5</v>
+      </c>
+      <c r="J22">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1390,8 +1596,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-3.5</v>
+      </c>
+      <c r="J23">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1414,8 +1628,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-6</v>
+      </c>
+      <c r="J24">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1443,10 +1665,16 @@
         <v>234</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="3">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-234</v>
+      </c>
+      <c r="J25" s="3">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1473,8 +1701,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>211.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-211.5</v>
+      </c>
+      <c r="J26">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-211.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1501,8 +1737,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>58.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-58.75</v>
+      </c>
+      <c r="J27">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-58.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1525,8 +1769,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>36.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-36.25</v>
+      </c>
+      <c r="J28">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-36.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1549,8 +1801,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>17.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-17.75</v>
+      </c>
+      <c r="J29">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-17.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1573,8 +1833,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>4.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-4.75</v>
+      </c>
+      <c r="J30">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-4.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1601,8 +1869,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>152.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-152.75</v>
+      </c>
+      <c r="J31">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-152.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1625,8 +1901,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-52.5</v>
+      </c>
+      <c r="J32">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-52.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1649,8 +1933,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-20.5</v>
+      </c>
+      <c r="J33">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1673,8 +1965,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>76.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-76.75</v>
+      </c>
+      <c r="J34">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-76.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1697,8 +1997,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-3</v>
+      </c>
+      <c r="J35">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -1725,8 +2033,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>22.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-22.5</v>
+      </c>
+      <c r="J36">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1749,8 +2065,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6.75</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-6.75</v>
+      </c>
+      <c r="J37">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-6.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1773,8 +2097,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>8.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-8.25</v>
+      </c>
+      <c r="J38">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-8.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -1797,8 +2129,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-7.5</v>
+      </c>
+      <c r="J39">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
@@ -1826,10 +2166,16 @@
         <v>42</v>
       </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="3">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-42</v>
+      </c>
+      <c r="J40" s="3">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1852,8 +2198,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>5.125</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-5.125</v>
+      </c>
+      <c r="J41">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-5.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -1876,8 +2230,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>6.375</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-6.375</v>
+      </c>
+      <c r="J42">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-6.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1900,8 +2262,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-1.25</v>
+      </c>
+      <c r="J43">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -1924,8 +2294,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-20</v>
+      </c>
+      <c r="J44">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -1948,8 +2326,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>9.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-9.25</v>
+      </c>
+      <c r="J45">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-9.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>66</v>
       </c>
@@ -1977,10 +2363,16 @@
         <v>30.25</v>
       </c>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I46" s="3">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-30.25</v>
+      </c>
+      <c r="J46" s="3">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-30.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -2003,8 +2395,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>21.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-21.5</v>
+      </c>
+      <c r="J47">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-21.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -2027,8 +2427,16 @@
         <f>AVERAGE(Tabelle2[[#This Row],[Niklas]]:Tabelle2[[#This Row],[Eric]])</f>
         <v>8.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I48">
+        <f>Tabelle2[[#This Row],[Ist-Stunden]]-Tabelle2[[#This Row],[Ø Schätzung (Soll-MA-Stunden)]]</f>
+        <v>-8.75</v>
+      </c>
+      <c r="J48">
+        <f>Tabelle2[[#This Row],[Abweichung (Std.)]]</f>
+        <v>-8.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>97</v>
@@ -2057,7 +2465,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
